--- a/urls.csv.xlsx
+++ b/urls.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aidenind-my.sharepoint.com/personal/rajeswari_ch_aidenai_com/Documents/Work/aiDAPML/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_F25DC773A252ABDACC104819419D7F925BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{11CB7FEE-05E7-43C5-A1F4-2CF76B473785}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="11_F25DC773A252ABDACC104819419D7F925BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F05F2BCB-2C6D-4A04-B58D-0A1834CB364E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
